--- a/1일1알고현황.xlsx
+++ b/1일1알고현황.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kohel\Desktop\SSAFY 7\Algorithm_Study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kohel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="22">
   <si>
     <t>git 1일 1알고 현황</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,14 @@
   </si>
   <si>
     <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -135,7 +143,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -278,13 +286,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -319,6 +336,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -601,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -614,13 +634,13 @@
     <col min="8" max="8" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
@@ -641,8 +661,11 @@
       <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="5">
         <v>1</v>
@@ -662,7 +685,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="5">
         <v>2</v>
@@ -682,7 +705,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="5">
         <v>3</v>
@@ -706,7 +729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="5">
         <v>4</v>
@@ -728,7 +751,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="5">
         <v>5</v>
@@ -746,7 +769,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="5">
         <v>6</v>
@@ -768,7 +791,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="5">
         <v>7</v>
@@ -790,7 +813,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="5">
         <v>8</v>
@@ -812,7 +835,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="5">
         <v>9</v>
@@ -828,7 +851,7 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="5">
         <v>10</v>
@@ -848,7 +871,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="5">
         <v>11</v>
@@ -866,7 +889,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="5">
         <v>12</v>
@@ -882,7 +905,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="5">
         <v>13</v>
@@ -898,7 +921,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="5">
         <v>14</v>
@@ -906,9 +929,15 @@
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="6"/>
     </row>
@@ -918,7 +947,9 @@
         <v>15</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1104,17 +1135,33 @@
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="C33">
-        <f>SUM(C3:C32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <f>COUNTIF(C3:C32,$I$2)</f>
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:G33" si="0">COUNTIF(D3:D32,$I$2)</f>
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
     </row>
   </sheetData>

--- a/1일1알고현황.xlsx
+++ b/1일1알고현황.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kohel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kohel\Desktop\SSAFY 7\05.Study\Algorithm_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="25">
   <si>
     <t>git 1일 1알고 현황</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -624,7 +636,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -963,7 +975,9 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="6"/>
     </row>
@@ -973,7 +987,9 @@
         <v>17</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -984,11 +1000,19 @@
       <c r="B20" s="5">
         <v>18</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -997,10 +1021,14 @@
         <v>19</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1010,9 +1038,13 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1024,7 +1056,9 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1034,7 +1068,9 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="6"/>
@@ -1046,7 +1082,9 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="6"/>
@@ -1071,8 +1109,12 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1080,11 +1122,19 @@
       <c r="B28" s="5">
         <v>26</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1094,9 +1144,13 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1106,7 +1160,9 @@
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="6"/>
@@ -1130,7 +1186,9 @@
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
@@ -1139,23 +1197,23 @@
       <c r="A33" s="10"/>
       <c r="C33">
         <f>COUNTIF(C3:C32,$I$2)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D33">
         <f t="shared" ref="D33:G33" si="0">COUNTIF(D3:D32,$I$2)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
